--- a/Files/Book.xlsx
+++ b/Files/Book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\phpfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\phpfiles\Altice-Project\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>miguel</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>zxczxc</t>
+  </si>
+  <si>
+    <t>kjkj</t>
   </si>
 </sst>
 </file>
@@ -374,15 +377,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AEK7" sqref="AEK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,8 +407,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -413,17 +425,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>10</v>
       </c>
